--- a/services/limbless-app/static/resources/templates/library_prep/WGS.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/WGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bsf/private/Sample_prep/SOPs_Checklists_QM_Documents/Checklists/RNA-seq/Construction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agynter/dev/limbless-app-dev/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A41EC7-A315-2C4E-9051-119A375710E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A356F-C61A-8C43-8B8F-EF26D977AF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57700" yWindow="2480" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="57700" yWindow="2480" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t>name_i5</t>
   </si>
   <si>
-    <t>library_conc_ng_ul</t>
-  </si>
-  <si>
     <t>ba</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>ng_pooling</t>
+  </si>
+  <si>
+    <t>lib_conc_ng_ul</t>
   </si>
 </sst>
 </file>
@@ -1314,71 +1314,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,15 +1357,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,29 +1392,68 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5374,8 +5374,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5401,92 +5401,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="82" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="127" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10619,7 +10619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957C799-4773-44A4-8118-3FED6C4511D6}">
   <dimension ref="A1:AK123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -10656,94 +10656,94 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+      <c r="L3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="120" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="121"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="7"/>
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="AK5" s="8"/>
+    </row>
+    <row r="6" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
-      <c r="AK5" s="8"/>
-    </row>
-    <row r="6" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="44"/>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
@@ -10751,14 +10751,14 @@
       <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="124"/>
+      <c r="A7" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -10766,70 +10766,70 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
+      <c r="A8" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="69"/>
       <c r="H12" s="9" t="b">
         <f>MOD(G12,8)=0</f>
@@ -10846,14 +10846,14 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="70"/>
       <c r="H13" s="9" t="b">
         <f>MOD(G13,12)=0</f>
@@ -10871,20 +10871,20 @@
     </row>
     <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
+      <c r="B14" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
       <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="21">
         <v>2</v>
@@ -10950,10 +10950,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F19" s="26"/>
       <c r="O19" s="17"/>
@@ -10962,7 +10962,7 @@
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="D20" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="26"/>
@@ -10972,7 +10972,7 @@
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="D21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="26"/>
@@ -10982,7 +10982,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="D22" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="3"/>
       <c r="O22" s="17"/>
@@ -10990,27 +10990,27 @@
     <row r="23" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
-      <c r="B24" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
+      <c r="B24" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
     </row>
     <row r="25" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -11050,7 +11050,7 @@
     <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="C28" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="27">
         <v>6.25</v>
@@ -11066,7 +11066,7 @@
     <row r="29" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="C29" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="21">
         <v>1.75</v>
@@ -11134,7 +11134,7 @@
     <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="C34" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="27">
         <v>6.25</v>
@@ -11150,7 +11150,7 @@
     <row r="35" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="C35" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="21">
         <v>1.75</v>
@@ -11186,63 +11186,63 @@
         <v>18</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="28"/>
       <c r="D38" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="103" t="s">
         <v>93</v>
-      </c>
-      <c r="E38" s="116" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="28"/>
       <c r="D39" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="116"/>
+        <v>94</v>
+      </c>
+      <c r="E39" s="103"/>
     </row>
     <row r="40" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="D40" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="29"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="119"/>
+      <c r="B42" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
     </row>
     <row r="43" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
@@ -11267,7 +11267,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" s="55">
         <v>3.5</v>
@@ -11283,7 +11283,7 @@
     <row r="46" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="C46" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" s="21">
         <v>1</v>
@@ -11299,7 +11299,7 @@
     <row r="47" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="C47" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47" s="24">
         <f>SUM(D45:D46)</f>
@@ -11319,7 +11319,7 @@
     <row r="48" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="3"/>
@@ -11330,7 +11330,7 @@
     <row r="49" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="3"/>
@@ -11341,7 +11341,7 @@
     <row r="50" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="3"/>
@@ -11355,40 +11355,40 @@
         <v>18</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="D52" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="D53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="105"/>
+      <c r="B54" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="95"/>
     </row>
     <row r="55" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
@@ -11437,7 +11437,7 @@
     <row r="59" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="C59" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="19">
         <v>1.25</v>
@@ -11453,7 +11453,7 @@
     <row r="60" spans="1:13" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="C60" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="21">
         <v>15</v>
@@ -11475,10 +11475,10 @@
         <v>18</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11520,7 +11520,7 @@
     <row r="65" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="C65" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="19">
         <v>1.5</v>
@@ -11539,29 +11539,29 @@
         <v>18</v>
       </c>
       <c r="D66" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="87"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="88"/>
+      <c r="B67" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="123"/>
+      <c r="L67" s="123"/>
+      <c r="M67" s="123"/>
+      <c r="N67" s="124"/>
     </row>
     <row r="68" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
@@ -11599,7 +11599,7 @@
     <row r="71" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="C71" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" s="27">
         <v>12.5</v>
@@ -11615,7 +11615,7 @@
     <row r="72" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="C72" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" s="21">
         <v>5</v>
@@ -11630,7 +11630,7 @@
     <row r="73" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="C73" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D73" s="27">
         <f>SUM(D70:D72)</f>
@@ -11647,7 +11647,7 @@
         <v>24</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H74" s="32"/>
     </row>
@@ -12122,61 +12122,61 @@
         <v>23</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="F85" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G85" s="95" t="s">
-        <v>118</v>
+        <v>68</v>
+      </c>
+      <c r="G85" s="107" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="F86" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G86" s="96"/>
+        <v>69</v>
+      </c>
+      <c r="G86" s="108"/>
     </row>
     <row r="87" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="F87" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F88" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
-      <c r="B89" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="98"/>
-      <c r="D89" s="98"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98"/>
-      <c r="I89" s="98"/>
-      <c r="J89" s="98"/>
-      <c r="K89" s="98"/>
-      <c r="L89" s="98"/>
-      <c r="M89" s="98"/>
-      <c r="N89" s="99"/>
+      <c r="B89" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="110"/>
+      <c r="L89" s="110"/>
+      <c r="M89" s="110"/>
+      <c r="N89" s="111"/>
     </row>
     <row r="90" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -12186,21 +12186,21 @@
     </row>
     <row r="91" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="34"/>
-      <c r="B91" s="100" t="s">
+      <c r="B91" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="101"/>
-      <c r="N91" s="102"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="113"/>
+      <c r="I91" s="113"/>
+      <c r="J91" s="113"/>
+      <c r="K91" s="113"/>
+      <c r="L91" s="113"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="114"/>
     </row>
     <row r="92" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
@@ -12672,26 +12672,26 @@
     </row>
     <row r="102" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
-      <c r="B102" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="98"/>
-      <c r="D102" s="98"/>
-      <c r="E102" s="98"/>
-      <c r="F102" s="98"/>
-      <c r="G102" s="98"/>
-      <c r="H102" s="98"/>
-      <c r="I102" s="98"/>
-      <c r="J102" s="98"/>
-      <c r="K102" s="98"/>
-      <c r="L102" s="98"/>
-      <c r="M102" s="98"/>
-      <c r="N102" s="99"/>
+      <c r="B102" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="110"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="110"/>
+      <c r="L102" s="110"/>
+      <c r="M102" s="110"/>
+      <c r="N102" s="111"/>
     </row>
     <row r="103" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -12702,7 +12702,7 @@
     <row r="104" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
       <c r="B104" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="66"/>
@@ -12713,7 +12713,7 @@
     <row r="105" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -12731,138 +12731,138 @@
     <row r="106" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="28"/>
       <c r="B106"/>
-      <c r="C106" s="92" t="s">
+      <c r="C106" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
+      <c r="F106" s="115"/>
+      <c r="G106" s="115"/>
+      <c r="H106" s="115"/>
+      <c r="I106" s="115"/>
+      <c r="J106" s="115"/>
+      <c r="K106" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="L106" s="94"/>
+      <c r="L106" s="117"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
     <row r="107" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="28"/>
       <c r="B107"/>
-      <c r="C107" s="92" t="s">
+      <c r="C107" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="115"/>
+      <c r="E107" s="115"/>
+      <c r="F107" s="115"/>
+      <c r="G107" s="115"/>
+      <c r="H107" s="115"/>
+      <c r="I107" s="115"/>
+      <c r="J107" s="115"/>
+      <c r="K107" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="92"/>
-      <c r="J107" s="92"/>
-      <c r="K107" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="L107" s="94"/>
+      <c r="L107" s="117"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
     <row r="108" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="28"/>
       <c r="B108"/>
-      <c r="C108" s="92" t="s">
+      <c r="C108" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="115"/>
+      <c r="E108" s="115"/>
+      <c r="F108" s="115"/>
+      <c r="G108" s="115"/>
+      <c r="H108" s="115"/>
+      <c r="I108" s="115"/>
+      <c r="J108" s="115"/>
+      <c r="K108" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="D108" s="92"/>
-      <c r="E108" s="92"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="92"/>
-      <c r="J108" s="92"/>
-      <c r="K108" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="L108" s="94"/>
+      <c r="L108" s="117"/>
       <c r="M108" s="67"/>
       <c r="N108"/>
     </row>
     <row r="109" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="28"/>
       <c r="B109"/>
-      <c r="C109" s="92" t="s">
+      <c r="C109" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="115"/>
+      <c r="E109" s="115"/>
+      <c r="F109" s="115"/>
+      <c r="G109" s="115"/>
+      <c r="H109" s="115"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="115"/>
+      <c r="K109" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="92"/>
-      <c r="I109" s="92"/>
-      <c r="J109" s="92"/>
-      <c r="K109" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="L109" s="94"/>
+      <c r="L109" s="117"/>
       <c r="M109" s="67"/>
       <c r="N109"/>
     </row>
     <row r="110" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="28"/>
       <c r="B110"/>
-      <c r="C110" s="92" t="s">
+      <c r="C110" s="115" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="D110" s="92"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="92"/>
-      <c r="H110" s="92"/>
-      <c r="I110" s="92"/>
-      <c r="J110" s="92"/>
-      <c r="K110" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="L110" s="94"/>
+      <c r="L110" s="117"/>
       <c r="M110" s="67"/>
     </row>
     <row r="111" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="28"/>
       <c r="B111"/>
-      <c r="C111" s="92" t="s">
+      <c r="C111" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="115"/>
+      <c r="H111" s="115"/>
+      <c r="I111" s="115"/>
+      <c r="J111" s="115"/>
+      <c r="K111" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D111" s="92"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="92"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="92"/>
-      <c r="I111" s="92"/>
-      <c r="J111" s="92"/>
-      <c r="K111" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="L111" s="94"/>
+      <c r="L111" s="117"/>
       <c r="M111" s="67"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28"/>
       <c r="B112"/>
-      <c r="C112" s="92" t="s">
+      <c r="C112" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="115"/>
+      <c r="E112" s="115"/>
+      <c r="F112" s="115"/>
+      <c r="G112" s="115"/>
+      <c r="H112" s="115"/>
+      <c r="I112" s="115"/>
+      <c r="J112" s="115"/>
+      <c r="K112" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
-      <c r="G112" s="92"/>
-      <c r="H112" s="92"/>
-      <c r="I112" s="92"/>
-      <c r="J112" s="92"/>
-      <c r="K112" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="L112" s="94"/>
+      <c r="L112" s="117"/>
       <c r="M112" s="67"/>
     </row>
     <row r="113" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12880,157 +12880,111 @@
       <c r="L113" s="31"/>
     </row>
     <row r="116" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="89" t="s">
+      <c r="C116" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="90"/>
-      <c r="E116" s="91"/>
-      <c r="F116" s="81" t="s">
+      <c r="D116" s="126"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="G116" s="120"/>
+      <c r="H116" s="120"/>
+      <c r="I116" s="121"/>
+    </row>
+    <row r="117" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="118"/>
+      <c r="H117" s="118"/>
+      <c r="I117" s="118"/>
+    </row>
+    <row r="118" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="118"/>
+      <c r="E118" s="118"/>
+      <c r="F118" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="118"/>
+      <c r="H118" s="118"/>
+      <c r="I118" s="118"/>
+    </row>
+    <row r="119" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="120"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="G116" s="82"/>
-      <c r="H116" s="82"/>
-      <c r="I116" s="83"/>
-    </row>
-    <row r="117" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" s="84"/>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-    </row>
-    <row r="118" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="84"/>
-      <c r="H118" s="84"/>
-      <c r="I118" s="84"/>
-    </row>
-    <row r="119" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" s="82"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="84" t="s">
+      <c r="G119" s="118"/>
+      <c r="H119" s="118"/>
+      <c r="I119" s="118"/>
+    </row>
+    <row r="120" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="120"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="G119" s="84"/>
-      <c r="H119" s="84"/>
-      <c r="I119" s="84"/>
-    </row>
-    <row r="120" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" s="82"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="G120" s="84"/>
-      <c r="H120" s="84"/>
-      <c r="I120" s="84"/>
+      <c r="G120" s="118"/>
+      <c r="H120" s="118"/>
+      <c r="I120" s="118"/>
     </row>
     <row r="121" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="82"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="G121" s="84"/>
-      <c r="H121" s="84"/>
-      <c r="I121" s="84"/>
+      <c r="D121" s="120"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="G121" s="118"/>
+      <c r="H121" s="118"/>
+      <c r="I121" s="118"/>
     </row>
     <row r="122" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="81" t="s">
+      <c r="C122" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="82"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="84">
+      <c r="D122" s="120"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="118">
         <v>20241011</v>
       </c>
-      <c r="G122" s="84"/>
-      <c r="H122" s="84"/>
-      <c r="I122" s="84"/>
+      <c r="G122" s="118"/>
+      <c r="H122" s="118"/>
+      <c r="I122" s="118"/>
     </row>
     <row r="123" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="81" t="s">
+      <c r="C123" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="84">
+      <c r="D123" s="120"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="118">
         <v>20240926</v>
       </c>
-      <c r="G123" s="84"/>
-      <c r="H123" s="84"/>
-      <c r="I123" s="84"/>
+      <c r="G123" s="118"/>
+      <c r="H123" s="118"/>
+      <c r="I123" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B54:M54"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="B89:N89"/>
-    <mergeCell ref="B91:N91"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="C106:J106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="C107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
     <mergeCell ref="C122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="C123:E123"/>
@@ -13047,6 +13001,52 @@
     <mergeCell ref="F116:I116"/>
     <mergeCell ref="C117:E117"/>
     <mergeCell ref="F117:I117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="B89:N89"/>
+    <mergeCell ref="B91:N91"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="C106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sample Name" prompt="Informative sample identifier provided by submitter. Only use letters, numbers or underscores [A-Za-z0-9_], no other characters, please." sqref="G87:G88 C76:F88 G76:G85 H76:N88 C94:N101" xr:uid="{89DDEE0A-F811-4153-AD5D-ACD0FBFA0CA8}"/>
